--- a/Data/updated-ccaf-miner-address-region.xlsx
+++ b/Data/updated-ccaf-miner-address-region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\CCAF\Week50 0905-0909\CCAF ETH PoW mining\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB9DC9B-0F4A-4527-9CCF-253282013DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDD48C-333D-40FC-99C5-5671C3970CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3281,10 +3281,10 @@
         <v>132</v>
       </c>
       <c r="D46">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>36.9</v>
@@ -3299,7 +3299,7 @@
         <v>0.8</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>135</v>
       </c>
       <c r="D47">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>36.9</v>
@@ -3346,7 +3346,7 @@
         <v>0.8</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
